--- a/Temperate Forest Traits.xlsx
+++ b/Temperate Forest Traits.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="265">
   <si>
     <t>Individual</t>
   </si>
@@ -1152,8 +1152,8 @@
   </sheetPr>
   <dimension ref="A1:L340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="137" workbookViewId="0">
-      <selection activeCell="E158" sqref="E158"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="137" workbookViewId="0">
+      <selection activeCell="F202" sqref="F202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2887,6 +2887,12 @@
       <c r="B160" s="1">
         <v>8</v>
       </c>
+      <c r="E160">
+        <v>81</v>
+      </c>
+      <c r="F160">
+        <v>62</v>
+      </c>
     </row>
     <row r="161" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
@@ -2895,6 +2901,12 @@
       <c r="B161" s="1">
         <v>8</v>
       </c>
+      <c r="E161">
+        <v>163</v>
+      </c>
+      <c r="F161">
+        <v>101</v>
+      </c>
     </row>
     <row r="162" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
@@ -2903,6 +2915,12 @@
       <c r="B162" s="1">
         <v>8</v>
       </c>
+      <c r="E162">
+        <v>87</v>
+      </c>
+      <c r="F162">
+        <v>81</v>
+      </c>
     </row>
     <row r="163" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
@@ -2911,6 +2929,12 @@
       <c r="B163" s="1">
         <v>8</v>
       </c>
+      <c r="E163">
+        <v>63</v>
+      </c>
+      <c r="F163">
+        <v>160</v>
+      </c>
     </row>
     <row r="164" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
@@ -2919,6 +2943,12 @@
       <c r="B164" s="1">
         <v>8</v>
       </c>
+      <c r="E164">
+        <v>109</v>
+      </c>
+      <c r="F164">
+        <v>130</v>
+      </c>
     </row>
     <row r="165" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
@@ -2927,6 +2957,12 @@
       <c r="B165" s="1">
         <v>8</v>
       </c>
+      <c r="E165">
+        <v>92</v>
+      </c>
+      <c r="F165">
+        <v>140</v>
+      </c>
     </row>
     <row r="166" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
@@ -2935,6 +2971,12 @@
       <c r="B166" s="1">
         <v>8</v>
       </c>
+      <c r="E166">
+        <v>125</v>
+      </c>
+      <c r="F166">
+        <v>111</v>
+      </c>
     </row>
     <row r="167" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
@@ -2943,6 +2985,12 @@
       <c r="B167" s="1">
         <v>8</v>
       </c>
+      <c r="E167">
+        <v>140</v>
+      </c>
+      <c r="F167">
+        <v>93</v>
+      </c>
     </row>
     <row r="168" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
@@ -2951,6 +2999,12 @@
       <c r="B168" s="1">
         <v>8</v>
       </c>
+      <c r="E168">
+        <v>55</v>
+      </c>
+      <c r="F168">
+        <v>85</v>
+      </c>
     </row>
     <row r="169" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
@@ -2973,6 +3027,12 @@
       <c r="B170" s="1">
         <v>8</v>
       </c>
+      <c r="E170">
+        <v>130</v>
+      </c>
+      <c r="F170">
+        <v>116</v>
+      </c>
     </row>
     <row r="171" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
@@ -2981,6 +3041,12 @@
       <c r="B171" s="1">
         <v>8</v>
       </c>
+      <c r="E171">
+        <v>90</v>
+      </c>
+      <c r="F171">
+        <v>51</v>
+      </c>
     </row>
     <row r="172" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
@@ -2989,6 +3055,12 @@
       <c r="B172" s="1">
         <v>8</v>
       </c>
+      <c r="E172">
+        <v>99</v>
+      </c>
+      <c r="F172">
+        <v>50</v>
+      </c>
     </row>
     <row r="173" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
@@ -2997,6 +3069,12 @@
       <c r="B173" s="1">
         <v>8</v>
       </c>
+      <c r="E173">
+        <v>105</v>
+      </c>
+      <c r="F173">
+        <v>63</v>
+      </c>
     </row>
     <row r="174" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
@@ -3019,6 +3097,12 @@
       <c r="B175" s="1">
         <v>8</v>
       </c>
+      <c r="E175">
+        <v>120</v>
+      </c>
+      <c r="F175">
+        <v>59</v>
+      </c>
     </row>
     <row r="176" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
@@ -3041,6 +3125,12 @@
       <c r="B177" s="1">
         <v>8</v>
       </c>
+      <c r="E177">
+        <v>111</v>
+      </c>
+      <c r="F177">
+        <v>81</v>
+      </c>
     </row>
     <row r="178" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
@@ -3049,6 +3139,12 @@
       <c r="B178" s="1">
         <v>8</v>
       </c>
+      <c r="E178">
+        <v>120</v>
+      </c>
+      <c r="F178">
+        <v>93</v>
+      </c>
     </row>
     <row r="179" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
@@ -3071,6 +3167,12 @@
       <c r="B180" s="1">
         <v>8</v>
       </c>
+      <c r="E180">
+        <v>91</v>
+      </c>
+      <c r="F180">
+        <v>43</v>
+      </c>
     </row>
     <row r="181" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
@@ -3079,6 +3181,12 @@
       <c r="B181" s="1">
         <v>8</v>
       </c>
+      <c r="E181">
+        <v>93</v>
+      </c>
+      <c r="F181">
+        <v>34</v>
+      </c>
     </row>
     <row r="182" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
@@ -3087,6 +3195,12 @@
       <c r="B182" s="1">
         <v>8</v>
       </c>
+      <c r="E182">
+        <v>110</v>
+      </c>
+      <c r="F182">
+        <v>53</v>
+      </c>
     </row>
     <row r="183" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
@@ -3123,6 +3237,9 @@
       <c r="B185" s="1">
         <v>8</v>
       </c>
+      <c r="E185">
+        <v>65</v>
+      </c>
     </row>
     <row r="186" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
@@ -3131,6 +3248,12 @@
       <c r="B186" s="1">
         <v>8</v>
       </c>
+      <c r="E186">
+        <v>105</v>
+      </c>
+      <c r="F186">
+        <v>120</v>
+      </c>
     </row>
     <row r="187" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
@@ -3139,6 +3262,12 @@
       <c r="B187" s="1">
         <v>8</v>
       </c>
+      <c r="E187">
+        <v>105</v>
+      </c>
+      <c r="F187">
+        <v>65</v>
+      </c>
     </row>
     <row r="188" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
@@ -3147,6 +3276,12 @@
       <c r="B188" s="1">
         <v>8</v>
       </c>
+      <c r="E188">
+        <v>122</v>
+      </c>
+      <c r="F188">
+        <v>84</v>
+      </c>
     </row>
     <row r="189" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
@@ -3169,6 +3304,9 @@
       <c r="B190" s="1">
         <v>8</v>
       </c>
+      <c r="E190" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="191" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
@@ -3177,6 +3315,12 @@
       <c r="B191" s="1">
         <v>8</v>
       </c>
+      <c r="E191">
+        <v>120</v>
+      </c>
+      <c r="F191">
+        <v>64</v>
+      </c>
     </row>
     <row r="192" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
@@ -3185,6 +3329,12 @@
       <c r="B192" s="1">
         <v>8</v>
       </c>
+      <c r="E192">
+        <v>130</v>
+      </c>
+      <c r="F192">
+        <v>54</v>
+      </c>
     </row>
     <row r="193" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
@@ -3193,6 +3343,12 @@
       <c r="B193" s="1">
         <v>8</v>
       </c>
+      <c r="E193">
+        <v>105</v>
+      </c>
+      <c r="F193">
+        <v>60</v>
+      </c>
     </row>
     <row r="194" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
@@ -3201,6 +3357,12 @@
       <c r="B194" s="1">
         <v>8</v>
       </c>
+      <c r="E194">
+        <v>123</v>
+      </c>
+      <c r="F194">
+        <v>117</v>
+      </c>
     </row>
     <row r="195" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
@@ -3209,6 +3371,12 @@
       <c r="B195" s="1">
         <v>8</v>
       </c>
+      <c r="E195">
+        <v>115</v>
+      </c>
+      <c r="F195">
+        <v>55</v>
+      </c>
     </row>
     <row r="196" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
@@ -3217,6 +3385,12 @@
       <c r="B196" s="1">
         <v>8</v>
       </c>
+      <c r="E196">
+        <v>120</v>
+      </c>
+      <c r="F196">
+        <v>70</v>
+      </c>
     </row>
     <row r="197" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
@@ -3267,6 +3441,12 @@
       <c r="B200" s="1">
         <v>8</v>
       </c>
+      <c r="E200">
+        <v>110</v>
+      </c>
+      <c r="F200">
+        <v>64</v>
+      </c>
     </row>
     <row r="201" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
@@ -3275,6 +3455,9 @@
       <c r="B201" s="1">
         <v>8</v>
       </c>
+      <c r="E201">
+        <v>85</v>
+      </c>
     </row>
     <row r="202" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
@@ -3353,7 +3536,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
         <v>32</v>
       </c>
@@ -3364,7 +3547,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
         <v>175</v>
       </c>
@@ -3375,7 +3558,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
         <v>34</v>
       </c>
@@ -3386,7 +3569,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
         <v>175</v>
       </c>
@@ -3394,7 +3577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
         <v>176</v>
       </c>
@@ -3405,7 +3588,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
         <v>177</v>
       </c>
@@ -3416,7 +3599,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
         <v>178</v>
       </c>
@@ -3427,7 +3610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
         <v>179</v>
       </c>
@@ -3438,15 +3621,21 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B217" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E217">
+        <v>20</v>
+      </c>
+      <c r="F217">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
         <v>180</v>
       </c>
@@ -3454,7 +3643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
         <v>181</v>
       </c>
@@ -3462,7 +3651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
         <v>182</v>
       </c>
@@ -3470,15 +3659,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B221" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E221">
+        <v>11</v>
+      </c>
+      <c r="F221">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
         <v>184</v>
       </c>
@@ -3486,7 +3681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
         <v>131</v>
       </c>
@@ -3494,23 +3689,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B224" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="E224">
+        <v>35</v>
+      </c>
+      <c r="F224">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B225" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="E225">
+        <v>30</v>
+      </c>
+      <c r="F225">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
         <v>187</v>
       </c>
@@ -3518,7 +3725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
         <v>188</v>
       </c>
@@ -3526,7 +3733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
         <v>189</v>
       </c>
@@ -3534,23 +3741,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B229" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="E229">
+        <v>45</v>
+      </c>
+      <c r="F229">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B230" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="E230">
+        <v>10</v>
+      </c>
+      <c r="F230">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
         <v>140</v>
       </c>
@@ -3558,7 +3777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="2" t="s">
         <v>190</v>
       </c>
@@ -3566,15 +3785,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B233" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="E233">
+        <v>22</v>
+      </c>
+      <c r="F233">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
         <v>128</v>
       </c>
@@ -3582,7 +3807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
         <v>192</v>
       </c>
@@ -3590,7 +3815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
         <v>193</v>
       </c>
@@ -3598,7 +3823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
         <v>194</v>
       </c>
@@ -3606,15 +3831,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B238" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="E238">
+        <v>65</v>
+      </c>
+      <c r="F238">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
         <v>195</v>
       </c>
@@ -3622,7 +3853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
         <v>196</v>
       </c>
@@ -4042,6 +4273,12 @@
       <c r="B286" s="1">
         <v>13</v>
       </c>
+      <c r="D286">
+        <v>60</v>
+      </c>
+      <c r="E286">
+        <v>105</v>
+      </c>
     </row>
     <row r="287" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
@@ -4059,39 +4296,63 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B289" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="D289">
+        <v>80</v>
+      </c>
+      <c r="E289">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B290" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="D290">
+        <v>50</v>
+      </c>
+      <c r="E290">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B291" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="D291">
+        <v>80</v>
+      </c>
+      <c r="E291">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B292" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="D292">
+        <v>80</v>
+      </c>
+      <c r="E292">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
         <v>227</v>
       </c>
@@ -4099,23 +4360,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B294" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="D294">
+        <v>95</v>
+      </c>
+      <c r="E294">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B295" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="D295">
+        <v>90</v>
+      </c>
+      <c r="E295">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
         <v>230</v>
       </c>
@@ -4123,15 +4396,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B297" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="D297">
+        <v>75</v>
+      </c>
+      <c r="E297">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
         <v>232</v>
       </c>
@@ -4139,31 +4418,49 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B299" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="D299">
+        <v>80</v>
+      </c>
+      <c r="E299">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B300" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="D300">
+        <v>60</v>
+      </c>
+      <c r="E300">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B301" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="D301">
+        <v>100</v>
+      </c>
+      <c r="E301">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" s="1" t="s">
         <v>235</v>
       </c>
@@ -4171,15 +4468,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B303" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="D303">
+        <v>50</v>
+      </c>
+      <c r="E303">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="1" t="s">
         <v>236</v>
       </c>
@@ -4193,6 +4496,12 @@
       </c>
       <c r="B305" s="1">
         <v>13</v>
+      </c>
+      <c r="D305">
+        <v>110</v>
+      </c>
+      <c r="E305">
+        <v>120</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="13" x14ac:dyDescent="0.15">

--- a/Temperate Forest Traits.xlsx
+++ b/Temperate Forest Traits.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="2860" yWindow="460" windowWidth="24040" windowHeight="16400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="265">
   <si>
     <t>Individual</t>
   </si>
@@ -1152,8 +1152,8 @@
   </sheetPr>
   <dimension ref="A1:L340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="137" workbookViewId="0">
-      <selection activeCell="F202" sqref="F202"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="137" workbookViewId="0">
+      <selection activeCell="E271" sqref="E271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3860,256 +3860,448 @@
       <c r="B240" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="E240" t="s">
+        <v>262</v>
+      </c>
+      <c r="F240" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B241" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="E241">
+        <v>87</v>
+      </c>
+      <c r="F241">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B242" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="E242">
+        <v>94</v>
+      </c>
+      <c r="F242">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B243" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="E243">
+        <v>142</v>
+      </c>
+      <c r="F243">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B244" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="E244">
+        <v>83</v>
+      </c>
+      <c r="F244">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B245" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="E245">
+        <v>135</v>
+      </c>
+      <c r="F245">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B246" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="E246">
+        <v>131</v>
+      </c>
+      <c r="F246">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B247" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="E247">
+        <v>39</v>
+      </c>
+      <c r="F247">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B248" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="E248">
+        <v>105</v>
+      </c>
+      <c r="F248">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B249" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="E249">
+        <v>109</v>
+      </c>
+      <c r="F249">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B250" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="E250">
+        <v>55</v>
+      </c>
+      <c r="F250">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B251" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="E251">
+        <v>110</v>
+      </c>
+      <c r="F251">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B252" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="E252">
+        <v>110</v>
+      </c>
+      <c r="F252">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B253" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="E253">
+        <v>105</v>
+      </c>
+      <c r="F253">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B254" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="E254">
+        <v>109</v>
+      </c>
+      <c r="F254">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B255" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="E255">
+        <v>84</v>
+      </c>
+      <c r="F255">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B256" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="E256" t="s">
+        <v>262</v>
+      </c>
+      <c r="F256" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B257" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="E257">
+        <v>120</v>
+      </c>
+      <c r="F257">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B258" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="E258">
+        <v>107</v>
+      </c>
+      <c r="F258">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B259" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="E259">
+        <v>136</v>
+      </c>
+      <c r="F259">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B260" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="E260">
+        <v>65</v>
+      </c>
+      <c r="F260">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B261" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="E261">
+        <v>107</v>
+      </c>
+      <c r="F261">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B262" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="E262">
+        <v>60</v>
+      </c>
+      <c r="F262">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B263" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="E263">
+        <v>30</v>
+      </c>
+      <c r="F263">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B264" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="E264">
+        <v>129</v>
+      </c>
+      <c r="F264">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B265" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="E265">
+        <v>111</v>
+      </c>
+      <c r="F265">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B266" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="E266">
+        <v>110</v>
+      </c>
+      <c r="F266">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B267" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="E267">
+        <v>30</v>
+      </c>
+      <c r="F267">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B268" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="E268">
+        <v>85</v>
+      </c>
+      <c r="F268">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B269" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="E269">
+        <v>155</v>
+      </c>
+      <c r="F269">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B270" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="E270">
+        <v>61</v>
+      </c>
+      <c r="F270">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B271" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+      <c r="E271">
+        <v>92</v>
+      </c>
+      <c r="F271">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
         <v>9</v>
       </c>
@@ -4490,7 +4682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
         <v>237</v>
       </c>
@@ -4504,111 +4696,189 @@
         <v>120</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B306" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E306">
+        <v>45</v>
+      </c>
+      <c r="F306">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B307" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E307">
+        <v>42</v>
+      </c>
+      <c r="F307">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B308" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E308">
+        <v>11</v>
+      </c>
+      <c r="F308">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B309" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E309">
+        <v>45</v>
+      </c>
+      <c r="F309">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A310" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B310" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E310">
+        <v>87</v>
+      </c>
+      <c r="F310">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B311" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E311">
+        <v>93</v>
+      </c>
+      <c r="F311">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B312" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E312">
+        <v>75</v>
+      </c>
+      <c r="F312">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B313" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E313">
+        <v>71</v>
+      </c>
+      <c r="F313">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B314" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E314">
+        <v>72</v>
+      </c>
+      <c r="F314">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B315" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E315">
+        <v>85</v>
+      </c>
+      <c r="F315">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B316" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E316">
+        <v>52</v>
+      </c>
+      <c r="F316">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B317" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E317">
+        <v>67</v>
+      </c>
+      <c r="F317">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B318" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E318">
+        <v>47</v>
+      </c>
+      <c r="F318">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="1" t="s">
         <v>16</v>
       </c>
@@ -4619,7 +4889,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
         <v>247</v>
       </c>

--- a/Temperate Forest Traits.xlsx
+++ b/Temperate Forest Traits.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="460" windowWidth="24040" windowHeight="16400" tabRatio="500"/>
+    <workbookView xWindow="2360" yWindow="460" windowWidth="24040" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="266">
   <si>
     <t>Individual</t>
   </si>
@@ -38,12 +38,6 @@
     <t>Provenance Latitude</t>
   </si>
   <si>
-    <t>DBH</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
     <t>Cross Sectional Area</t>
   </si>
   <si>
@@ -143,9 +137,6 @@
     <t>ALNINC_WM_5B</t>
   </si>
   <si>
-    <t>BETALL_GR9</t>
-  </si>
-  <si>
     <t>AMECAN_GR_10A</t>
   </si>
   <si>
@@ -431,9 +422,6 @@
     <t>DIELON_HF_2</t>
   </si>
   <si>
-    <t>DIELON_HF_18</t>
-  </si>
-  <si>
     <t>ACESPI_GR_4</t>
   </si>
   <si>
@@ -797,12 +785,6 @@
     <t>BETALL_SH_7</t>
   </si>
   <si>
-    <t>Width</t>
-  </si>
-  <si>
-    <t>Fungal Infection</t>
-  </si>
-  <si>
     <t>Total Leaf Area</t>
   </si>
   <si>
@@ -821,7 +803,28 @@
     <t>ALNINC_GR_01</t>
   </si>
   <si>
-    <t>94- but no leaves</t>
+    <t>Leaf Wet Weight</t>
+  </si>
+  <si>
+    <t>Percent Herbivory</t>
+  </si>
+  <si>
+    <t>DIELON_HF_1B</t>
+  </si>
+  <si>
+    <t>BETALL_GR_9</t>
+  </si>
+  <si>
+    <t>314.54***</t>
+  </si>
+  <si>
+    <t>Height (cm)</t>
+  </si>
+  <si>
+    <t>Width (cm)</t>
+  </si>
+  <si>
+    <t>DBH (cm)</t>
   </si>
 </sst>
 </file>
@@ -863,13 +866,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1150,21 +1155,21 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L340"/>
+  <dimension ref="A1:M341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="137" workbookViewId="0">
-      <selection activeCell="E271" sqref="E271"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="9" width="19.5" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+    <col min="5" max="10" width="19.5" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1175,44 +1180,50 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>258</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
+      <c r="E2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1220,10 +1231,13 @@
       <c r="D3">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
+      <c r="E3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1231,10 +1245,13 @@
       <c r="D4">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
+      <c r="E4">
+        <v>305.39999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1242,10 +1259,13 @@
       <c r="D5">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
+      <c r="E5">
+        <v>315.70999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -1253,10 +1273,13 @@
       <c r="D6">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
+      <c r="E6">
+        <v>392.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1264,10 +1287,13 @@
       <c r="D7">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
+      <c r="E7">
+        <v>307.52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1275,10 +1301,13 @@
       <c r="D8">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
+      <c r="E8">
+        <v>374.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -1286,21 +1315,27 @@
       <c r="D9">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
+      <c r="E9">
+        <v>353.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>254</v>
+      </c>
+      <c r="E10">
+        <v>238.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -1308,10 +1343,13 @@
       <c r="D11">
         <v>2.17</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
+      <c r="E11">
+        <v>341.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -1319,10 +1357,13 @@
       <c r="D12">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
+      <c r="E12">
+        <v>289.47000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -1330,21 +1371,27 @@
       <c r="D13">
         <v>2.0699999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
+      <c r="E13">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>254</v>
+      </c>
+      <c r="E14">
+        <v>334.16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -1352,10 +1399,13 @@
       <c r="D15">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
+      <c r="E15">
+        <v>358.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -1363,10 +1413,13 @@
       <c r="D16">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
+      <c r="E16">
+        <v>416.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -1374,18 +1427,24 @@
       <c r="D17">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
+      <c r="E17">
+        <v>398.24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>25</v>
+      <c r="E18">
+        <v>364.61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -1393,29 +1452,41 @@
       <c r="D19">
         <v>3.85</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
+      <c r="E19">
+        <v>403.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>254</v>
+      </c>
+      <c r="E20">
+        <v>249.65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>28</v>
+      <c r="E21">
+        <v>170</v>
+      </c>
+      <c r="F21">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
@@ -1423,21 +1494,27 @@
       <c r="D22">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>16</v>
+      <c r="E22">
+        <v>262.39999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>254</v>
+      </c>
+      <c r="E23">
+        <v>135.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
@@ -1445,10 +1522,13 @@
       <c r="D24">
         <v>1.76</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
+      <c r="E24">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
@@ -1456,1808 +1536,2258 @@
       <c r="D25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
+      <c r="E25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>254</v>
+      </c>
+      <c r="E26">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
       </c>
-      <c r="D27">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>32</v>
+      <c r="D27" t="s">
+        <v>256</v>
+      </c>
+      <c r="E27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
       </c>
-      <c r="D28" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>33</v>
+      <c r="D28">
+        <v>3.6</v>
+      </c>
+      <c r="E28">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>254</v>
+      </c>
+      <c r="E29">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
       </c>
-      <c r="D30">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>35</v>
+      <c r="D30" t="s">
+        <v>254</v>
+      </c>
+      <c r="E30">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E31">
+        <v>332.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B32" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>37</v>
+      <c r="D32">
+        <v>1.95</v>
+      </c>
+      <c r="E32">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B33" s="1">
         <v>2</v>
       </c>
-      <c r="D33">
-        <v>2.0299999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>31</v>
+      <c r="E33">
+        <v>87</v>
+      </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
       </c>
-      <c r="D34" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>38</v>
+      <c r="D34">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E34">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B35" s="1">
-        <v>3</v>
-      </c>
-      <c r="D35">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>256</v>
+      </c>
+      <c r="E35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="B36" s="1">
         <v>3</v>
       </c>
       <c r="D36">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>1.6</v>
+      </c>
+      <c r="E36">
+        <v>279.10000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B37" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>40</v>
+      <c r="D37">
+        <v>1.7</v>
+      </c>
+      <c r="E37">
+        <v>311.89999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>3</v>
       </c>
-      <c r="D38">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>41</v>
+      <c r="E38">
+        <v>148</v>
+      </c>
+      <c r="F38">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>3</v>
       </c>
       <c r="D39">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>1.6</v>
+      </c>
+      <c r="E39">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>3</v>
       </c>
       <c r="D40">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>21</v>
+        <v>1.4</v>
+      </c>
+      <c r="E40">
+        <v>302.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
       </c>
       <c r="D41">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>26</v>
+        <v>1.6</v>
+      </c>
+      <c r="E41">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B42" s="1">
         <v>3</v>
       </c>
       <c r="D42">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>1.4</v>
+      </c>
+      <c r="E42">
+        <v>328.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B43" s="1">
         <v>3</v>
       </c>
-      <c r="D43" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>44</v>
+      <c r="D43">
+        <v>1.6</v>
+      </c>
+      <c r="E43">
+        <v>169.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B44" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
-        <v>45</v>
+      <c r="D44" t="s">
+        <v>255</v>
+      </c>
+      <c r="E44">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B45" s="1">
         <v>3</v>
       </c>
-      <c r="D45">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
-        <v>35</v>
+      <c r="E45">
+        <v>179</v>
+      </c>
+      <c r="F45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B46" s="1">
         <v>3</v>
       </c>
       <c r="D46">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>1.8</v>
+      </c>
+      <c r="E46">
+        <v>309.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B47" s="1">
         <v>3</v>
       </c>
       <c r="D47">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>1.6</v>
+      </c>
+      <c r="E47">
+        <v>331.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="B48" s="1">
         <v>3</v>
       </c>
       <c r="D48">
-        <v>2.2000000000000002</v>
+        <v>1.7</v>
+      </c>
+      <c r="E48">
+        <v>333.8</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
-        <v>48</v>
+      <c r="A49" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B49" s="1">
         <v>3</v>
       </c>
       <c r="D49">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E49">
+        <v>382.4</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
-        <v>12</v>
+      <c r="A50" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B50" s="1">
         <v>3</v>
       </c>
       <c r="D50">
-        <v>4.7</v>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E50">
+        <v>316.8</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
-        <v>49</v>
+      <c r="A51" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B51" s="1">
         <v>3</v>
       </c>
       <c r="D51">
-        <v>2.23</v>
+        <v>4.7</v>
+      </c>
+      <c r="E51">
+        <v>458</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
-        <v>31</v>
+      <c r="A52" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="B52" s="1">
         <v>3</v>
       </c>
-      <c r="D52" t="s">
-        <v>262</v>
+      <c r="D52">
+        <v>2.23</v>
+      </c>
+      <c r="E52">
+        <v>407</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
-        <v>50</v>
+      <c r="A53" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B53" s="1">
         <v>3</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="s">
+        <v>256</v>
+      </c>
+      <c r="E53" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A54" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="1">
+        <v>3</v>
+      </c>
+      <c r="D54">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="1">
-        <v>4</v>
+      <c r="E54">
+        <v>226.2</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B55" s="1">
         <v>4</v>
       </c>
+      <c r="E55">
+        <v>135</v>
+      </c>
+      <c r="F55">
+        <v>135</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B56" s="1">
         <v>4</v>
       </c>
       <c r="E56">
-        <v>86.8</v>
+        <v>111</v>
       </c>
       <c r="F56">
-        <v>88.4</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B57" s="1">
         <v>4</v>
       </c>
+      <c r="E57">
+        <v>86.8</v>
+      </c>
+      <c r="F57">
+        <v>88.4</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B58" s="1">
         <v>4</v>
       </c>
       <c r="E58">
-        <v>67.2</v>
+        <v>140</v>
       </c>
       <c r="F58">
-        <v>79.599999999999994</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B59" s="1">
         <v>4</v>
       </c>
+      <c r="E59">
+        <v>67.2</v>
+      </c>
+      <c r="F59">
+        <v>79.599999999999994</v>
+      </c>
     </row>
     <row r="60" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B60" s="1">
         <v>4</v>
       </c>
+      <c r="E60">
+        <v>81</v>
+      </c>
+      <c r="F60">
+        <v>124</v>
+      </c>
     </row>
     <row r="61" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B61" s="1">
         <v>4</v>
       </c>
+      <c r="E61">
+        <v>90</v>
+      </c>
+      <c r="F61">
+        <v>78</v>
+      </c>
     </row>
     <row r="62" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B62" s="1">
         <v>4</v>
       </c>
-      <c r="E62">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="F62">
-        <v>152.4</v>
+      <c r="E62" t="s">
+        <v>256</v>
+      </c>
+      <c r="F62" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B63" s="1">
         <v>4</v>
       </c>
+      <c r="E63">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="F63">
+        <v>152.4</v>
+      </c>
     </row>
     <row r="64" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B64" s="1">
         <v>4</v>
       </c>
+      <c r="E64">
+        <v>87</v>
+      </c>
+      <c r="F64">
+        <v>102</v>
+      </c>
     </row>
     <row r="65" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B65" s="1">
         <v>4</v>
       </c>
+      <c r="E65">
+        <v>72</v>
+      </c>
+      <c r="F65">
+        <v>109</v>
+      </c>
     </row>
     <row r="66" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B66" s="1">
         <v>4</v>
       </c>
       <c r="E66">
-        <v>96.8</v>
+        <v>68</v>
       </c>
       <c r="F66">
-        <v>151.80000000000001</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B67" s="1">
         <v>4</v>
       </c>
       <c r="E67">
-        <v>137.6</v>
+        <v>96.8</v>
       </c>
       <c r="F67">
-        <v>134.19999999999999</v>
+        <v>151.80000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B68" s="1">
         <v>4</v>
       </c>
+      <c r="E68">
+        <v>137.6</v>
+      </c>
+      <c r="F68">
+        <v>134.19999999999999</v>
+      </c>
     </row>
     <row r="69" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B69" s="1">
         <v>4</v>
       </c>
+      <c r="E69">
+        <v>136</v>
+      </c>
+      <c r="F69">
+        <v>123</v>
+      </c>
     </row>
     <row r="70" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B70" s="1">
         <v>4</v>
       </c>
       <c r="E70">
-        <v>173.2</v>
+        <v>65</v>
       </c>
       <c r="F70">
-        <v>230.8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B71" s="1">
         <v>4</v>
       </c>
+      <c r="E71">
+        <v>173.2</v>
+      </c>
+      <c r="F71">
+        <v>230.8</v>
+      </c>
     </row>
     <row r="72" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B72" s="1">
         <v>4</v>
       </c>
+      <c r="E72">
+        <v>120</v>
+      </c>
+      <c r="F72">
+        <v>80</v>
+      </c>
     </row>
     <row r="73" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B73" s="1">
         <v>4</v>
       </c>
       <c r="E73">
-        <v>144.80000000000001</v>
+        <v>121</v>
       </c>
       <c r="F73">
-        <v>129</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B74" s="1">
         <v>4</v>
       </c>
+      <c r="E74">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="F74">
+        <v>129</v>
+      </c>
     </row>
     <row r="75" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B75" s="1">
         <v>4</v>
       </c>
       <c r="E75">
-        <v>168.2</v>
+        <v>187</v>
       </c>
       <c r="F75">
-        <v>189.6</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B76" s="1">
         <v>4</v>
       </c>
+      <c r="E76">
+        <v>168.2</v>
+      </c>
+      <c r="F76">
+        <v>189.6</v>
+      </c>
     </row>
     <row r="77" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B77" s="1">
         <v>4</v>
       </c>
+      <c r="E77">
+        <v>145</v>
+      </c>
+      <c r="F77">
+        <v>132</v>
+      </c>
     </row>
     <row r="78" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B78" s="1">
         <v>4</v>
       </c>
+      <c r="E78">
+        <v>125</v>
+      </c>
+      <c r="F78">
+        <v>150</v>
+      </c>
     </row>
     <row r="79" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B79" s="1">
         <v>4</v>
       </c>
+      <c r="E79">
+        <v>86</v>
+      </c>
+      <c r="F79">
+        <v>95</v>
+      </c>
     </row>
     <row r="80" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B80" s="1">
         <v>4</v>
       </c>
       <c r="E80">
-        <v>182.4</v>
+        <v>94</v>
       </c>
       <c r="F80">
-        <v>185.5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B81" s="1">
         <v>4</v>
       </c>
       <c r="E81">
-        <v>170.7</v>
+        <v>182.4</v>
       </c>
       <c r="F81">
-        <v>158</v>
+        <v>185.5</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B82" s="1">
         <v>4</v>
       </c>
+      <c r="E82">
+        <v>170.7</v>
+      </c>
+      <c r="F82">
+        <v>158</v>
+      </c>
     </row>
     <row r="83" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B83" s="1">
         <v>4</v>
       </c>
       <c r="E83">
-        <v>136.19999999999999</v>
+        <v>72</v>
       </c>
       <c r="F83">
-        <v>185.5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B84" s="1">
         <v>4</v>
       </c>
       <c r="E84">
-        <v>131</v>
+        <v>136.19999999999999</v>
       </c>
       <c r="F84">
-        <v>81.2</v>
+        <v>185.5</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B85" s="1">
         <v>4</v>
       </c>
       <c r="E85">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="F85">
-        <v>139</v>
+        <v>81.2</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B86" s="1">
         <v>4</v>
       </c>
+      <c r="E86">
+        <v>146</v>
+      </c>
+      <c r="F86">
+        <v>139</v>
+      </c>
     </row>
     <row r="87" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B87" s="1">
         <v>4</v>
       </c>
+      <c r="E87">
+        <v>151</v>
+      </c>
+      <c r="F87">
+        <v>143</v>
+      </c>
     </row>
     <row r="88" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B88" s="1">
         <v>4</v>
       </c>
       <c r="E88">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="F88">
-        <v>140</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B89" s="1">
         <v>4</v>
       </c>
+      <c r="E89">
+        <v>161</v>
+      </c>
+      <c r="F89">
+        <v>140</v>
+      </c>
     </row>
     <row r="90" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B90" s="1">
         <v>4</v>
       </c>
       <c r="E90">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F90">
-        <v>108</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B91" s="1">
         <v>4</v>
       </c>
+      <c r="E91">
+        <v>121</v>
+      </c>
+      <c r="F91">
+        <v>108</v>
+      </c>
     </row>
     <row r="92" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B92" s="1">
         <v>4</v>
       </c>
+      <c r="E92">
+        <v>72</v>
+      </c>
+      <c r="F92">
+        <v>150</v>
+      </c>
     </row>
     <row r="93" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B93" s="1">
         <v>4</v>
       </c>
+      <c r="E93">
+        <v>170</v>
+      </c>
+      <c r="F93">
+        <v>86</v>
+      </c>
     </row>
     <row r="94" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B94" s="1">
         <v>4</v>
       </c>
       <c r="E94">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="F94">
-        <v>179</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B95" s="1">
         <v>4</v>
       </c>
+      <c r="E95">
+        <v>149</v>
+      </c>
+      <c r="F95">
+        <v>179</v>
+      </c>
     </row>
     <row r="96" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B96" s="1">
         <v>4</v>
       </c>
+      <c r="E96">
+        <v>102</v>
+      </c>
+      <c r="F96">
+        <v>95</v>
+      </c>
     </row>
     <row r="97" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B97" s="1">
         <v>4</v>
       </c>
+      <c r="E97" t="s">
+        <v>256</v>
+      </c>
+      <c r="F97" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="98" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B98" s="1">
         <v>4</v>
       </c>
       <c r="E98">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="F98">
-        <v>137</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B99" s="1">
         <v>4</v>
       </c>
+      <c r="E99">
+        <v>133</v>
+      </c>
+      <c r="F99">
+        <v>137</v>
+      </c>
     </row>
     <row r="100" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="B100" s="1">
-        <v>5</v>
-      </c>
-      <c r="D100" t="s">
-        <v>260</v>
+        <v>4</v>
+      </c>
+      <c r="E100">
+        <v>105</v>
+      </c>
+      <c r="F100">
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A101" s="1" t="s">
-        <v>97</v>
+      <c r="A101" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B101" s="1">
         <v>5</v>
       </c>
-      <c r="D101">
-        <v>3</v>
+      <c r="D101" t="s">
+        <v>254</v>
+      </c>
+      <c r="E101">
+        <v>246.5</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A102" s="1" t="s">
-        <v>98</v>
+      <c r="A102" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="B102" s="1">
         <v>5</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E102">
+        <v>444.5</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A103" s="1" t="s">
-        <v>31</v>
+      <c r="A103" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="B103" s="1">
         <v>5</v>
       </c>
-      <c r="D103" t="s">
-        <v>262</v>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <v>399.5</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A104" s="1" t="s">
-        <v>39</v>
+      <c r="A104" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B104" s="1">
         <v>5</v>
       </c>
+      <c r="D104" t="s">
+        <v>256</v>
+      </c>
+      <c r="E104">
+        <v>137</v>
+      </c>
     </row>
     <row r="105" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A105" s="1" t="s">
-        <v>99</v>
+      <c r="A105" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B105" s="1">
         <v>5</v>
       </c>
-      <c r="D105">
-        <v>1.86</v>
+      <c r="E105">
+        <v>65</v>
+      </c>
+      <c r="F105">
+        <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A106" s="1" t="s">
-        <v>263</v>
+      <c r="A106" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="B106" s="1">
         <v>5</v>
       </c>
       <c r="D106">
-        <v>2.2000000000000002</v>
+        <v>1.86</v>
+      </c>
+      <c r="E106">
+        <v>404.63</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A107" s="1" t="s">
-        <v>100</v>
+      <c r="A107" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="B107" s="1">
         <v>5</v>
       </c>
+      <c r="D107">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E107">
+        <v>341.2</v>
+      </c>
     </row>
     <row r="108" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A108" s="1" t="s">
-        <v>101</v>
+      <c r="A108" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="B108" s="1">
         <v>5</v>
       </c>
-      <c r="D108">
-        <v>2.35</v>
+      <c r="E108">
+        <v>150</v>
+      </c>
+      <c r="F108">
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A109" s="1" t="s">
-        <v>102</v>
+      <c r="A109" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="B109" s="1">
         <v>5</v>
       </c>
-      <c r="D109" t="s">
-        <v>260</v>
+      <c r="D109">
+        <v>2.35</v>
+      </c>
+      <c r="E109">
+        <v>345.6</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A110" s="1" t="s">
-        <v>44</v>
+      <c r="A110" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="B110" s="1">
         <v>5</v>
       </c>
+      <c r="D110" t="s">
+        <v>254</v>
+      </c>
+      <c r="E110">
+        <v>186.1</v>
+      </c>
     </row>
     <row r="111" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A111" s="1" t="s">
-        <v>103</v>
+      <c r="A111" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B111" s="1">
         <v>5</v>
       </c>
-      <c r="D111">
-        <v>1.9</v>
+      <c r="E111">
+        <v>93</v>
+      </c>
+      <c r="F111">
+        <v>52</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A112" s="1" t="s">
-        <v>30</v>
+      <c r="A112" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="B112" s="1">
         <v>5</v>
       </c>
       <c r="D112">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A113" s="1" t="s">
-        <v>104</v>
+        <v>1.9</v>
+      </c>
+      <c r="E112">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A113" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B113" s="1">
         <v>5</v>
       </c>
-      <c r="D113" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A114" s="1" t="s">
-        <v>32</v>
+      <c r="D113">
+        <v>1.5</v>
+      </c>
+      <c r="E113">
+        <v>298.64</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A114" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B114" s="1">
         <v>5</v>
       </c>
       <c r="D114" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A115" s="1" t="s">
-        <v>105</v>
+        <v>254</v>
+      </c>
+      <c r="E114">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A115" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B115" s="1">
         <v>5</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="s">
+        <v>254</v>
+      </c>
+      <c r="E115">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A116" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B116" s="1">
+        <v>5</v>
+      </c>
+      <c r="D116">
         <v>2.73</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A116" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B116" s="1">
-        <v>6</v>
-      </c>
-      <c r="D116">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A117" s="1" t="s">
-        <v>22</v>
+      <c r="E116">
+        <v>652.62</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A117" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="B117" s="1">
         <v>6</v>
       </c>
       <c r="D117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A118" s="1" t="s">
-        <v>107</v>
+        <v>1.3</v>
+      </c>
+      <c r="E117">
+        <v>295.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A118" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B118" s="1">
         <v>6</v>
       </c>
       <c r="D118">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A119" s="1" t="s">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>372.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A119" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="B119" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A120" s="1" t="s">
-        <v>43</v>
+      <c r="D119">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E119">
+        <v>413.12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A120" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="B120" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A121" s="1" t="s">
-        <v>108</v>
+      <c r="E120">
+        <v>184</v>
+      </c>
+      <c r="F120">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A121" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B121" s="1">
         <v>6</v>
       </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A122" s="1" t="s">
-        <v>109</v>
+      <c r="E121">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A122" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="B122" s="1">
         <v>6</v>
       </c>
       <c r="D122">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A123" s="1" t="s">
-        <v>110</v>
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>270.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A123" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="B123" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A124" s="1" t="s">
-        <v>111</v>
+      <c r="D123">
+        <v>3.1</v>
+      </c>
+      <c r="E123">
+        <v>516.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A124" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="B124" s="1">
         <v>6</v>
       </c>
-      <c r="D124">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A125" s="1" t="s">
-        <v>112</v>
+      <c r="E124">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A125" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="B125" s="1">
         <v>6</v>
       </c>
       <c r="D125">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A126" s="1" t="s">
-        <v>113</v>
+        <v>1.7</v>
+      </c>
+      <c r="E125">
+        <v>302.39999999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A126" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="B126" s="1">
         <v>6</v>
       </c>
       <c r="D126">
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A127" s="1" t="s">
-        <v>114</v>
+        <v>3.5</v>
+      </c>
+      <c r="E126">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A127" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="B127" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A128" s="1" t="s">
-        <v>31</v>
+      <c r="D127">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E127">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A128" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="B128" s="1">
         <v>6</v>
       </c>
+      <c r="E128">
+        <v>200.1</v>
+      </c>
     </row>
     <row r="129" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A129" s="1" t="s">
-        <v>34</v>
+      <c r="A129" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B129" s="1">
         <v>6</v>
       </c>
-      <c r="D129">
-        <v>1.33</v>
+      <c r="D129" t="s">
+        <v>256</v>
+      </c>
+      <c r="E129" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A130" s="1" t="s">
-        <v>115</v>
+      <c r="A130" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B130" s="1">
         <v>6</v>
       </c>
+      <c r="D130">
+        <v>1.33</v>
+      </c>
+      <c r="E130">
+        <v>296.39999999999998</v>
+      </c>
     </row>
     <row r="131" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A131" s="1" t="s">
-        <v>116</v>
+      <c r="A131" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="B131" s="1">
         <v>6</v>
       </c>
-      <c r="D131">
-        <v>1.2</v>
+      <c r="D131" t="s">
+        <v>256</v>
+      </c>
+      <c r="E131" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A132" s="1" t="s">
-        <v>36</v>
+      <c r="A132" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="B132" s="1">
         <v>6</v>
       </c>
+      <c r="D132">
+        <v>1.2</v>
+      </c>
+      <c r="E132">
+        <v>303.2</v>
+      </c>
     </row>
     <row r="133" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A133" s="1" t="s">
-        <v>12</v>
+      <c r="A133" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B133" s="1">
         <v>6</v>
       </c>
-      <c r="D133">
-        <v>1.4</v>
+      <c r="E133">
+        <v>177</v>
+      </c>
+      <c r="F133">
+        <v>102</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B134" s="1">
         <v>6</v>
       </c>
-      <c r="D134" t="s">
-        <v>262</v>
+      <c r="D134">
+        <v>1.4</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="B135" s="1">
-        <v>7</v>
-      </c>
-      <c r="E135">
-        <v>183</v>
+        <v>6</v>
+      </c>
+      <c r="D135" t="s">
+        <v>256</v>
+      </c>
+      <c r="E135" t="s">
+        <v>256</v>
+      </c>
+      <c r="F135" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A136" s="1" t="s">
-        <v>118</v>
+      <c r="A136" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="B136" s="1">
         <v>7</v>
       </c>
+      <c r="E136">
+        <v>183</v>
+      </c>
+      <c r="F136">
+        <v>175</v>
+      </c>
     </row>
     <row r="137" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A137" s="1" t="s">
-        <v>119</v>
+      <c r="A137" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="B137" s="1">
         <v>7</v>
       </c>
-      <c r="E137">
-        <v>81</v>
-      </c>
-      <c r="F137">
-        <v>132</v>
+      <c r="E137" t="s">
+        <v>256</v>
+      </c>
+      <c r="F137" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A138" s="1" t="s">
-        <v>120</v>
+      <c r="A138" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="B138" s="1">
         <v>7</v>
       </c>
       <c r="E138">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F138">
-        <v>48</v>
+        <v>132</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A139" s="1" t="s">
-        <v>121</v>
+      <c r="A139" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="B139" s="1">
         <v>7</v>
       </c>
+      <c r="E139">
+        <v>63</v>
+      </c>
+      <c r="F139">
+        <v>48</v>
+      </c>
     </row>
     <row r="140" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A140" s="1" t="s">
-        <v>122</v>
+      <c r="A140" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="B140" s="1">
         <v>7</v>
       </c>
+      <c r="E140">
+        <v>208</v>
+      </c>
+      <c r="F140">
+        <v>283</v>
+      </c>
     </row>
     <row r="141" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A141" s="1" t="s">
-        <v>123</v>
+      <c r="A141" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="B141" s="1">
         <v>7</v>
       </c>
-      <c r="E141">
-        <v>75</v>
-      </c>
-      <c r="F141">
-        <v>90</v>
+      <c r="E141" t="s">
+        <v>256</v>
+      </c>
+      <c r="F141" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A142" s="1" t="s">
-        <v>124</v>
+      <c r="A142" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="B142" s="1">
         <v>7</v>
       </c>
       <c r="E142">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F142">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A143" s="1" t="s">
-        <v>125</v>
+      <c r="A143" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="B143" s="1">
         <v>7</v>
       </c>
       <c r="E143">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="F143">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A144" s="1" t="s">
-        <v>126</v>
+      <c r="A144" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="B144" s="1">
         <v>7</v>
       </c>
       <c r="E144">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F144">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A145" s="1" t="s">
-        <v>127</v>
+      <c r="A145" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="B145" s="1">
         <v>7</v>
       </c>
       <c r="E145">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F145">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A146" s="1" t="s">
-        <v>128</v>
+      <c r="A146" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="B146" s="1">
         <v>7</v>
       </c>
       <c r="E146">
-        <v>95</v>
+        <v>22</v>
+      </c>
+      <c r="F146">
+        <v>20</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A147" s="1" t="s">
-        <v>129</v>
+      <c r="A147" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="B147" s="1">
         <v>7</v>
       </c>
       <c r="E147">
-        <v>111</v>
+        <v>95</v>
+      </c>
+      <c r="F147">
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A148" s="1" t="s">
-        <v>130</v>
+      <c r="A148" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="B148" s="1">
         <v>7</v>
       </c>
       <c r="E148">
-        <v>99</v>
+        <v>111</v>
+      </c>
+      <c r="F148">
+        <v>150</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A149" s="1" t="s">
-        <v>131</v>
+      <c r="A149" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="B149" s="1">
         <v>7</v>
       </c>
       <c r="E149">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="F149">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A150" s="1" t="s">
-        <v>132</v>
+      <c r="A150" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="B150" s="1">
         <v>7</v>
       </c>
       <c r="E150">
-        <v>105</v>
+        <v>22</v>
+      </c>
+      <c r="F150">
+        <v>35</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A151" s="1" t="s">
-        <v>133</v>
+      <c r="A151" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="B151" s="1">
         <v>7</v>
       </c>
       <c r="E151">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="F151">
-        <v>68</v>
+        <v>137</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A152" s="1" t="s">
-        <v>134</v>
+      <c r="A152" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="B152" s="1">
         <v>7</v>
       </c>
       <c r="E152">
-        <v>145</v>
+        <v>50</v>
+      </c>
+      <c r="F152">
+        <v>68</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A153" s="1" t="s">
-        <v>135</v>
+      <c r="A153" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="B153" s="1">
         <v>7</v>
       </c>
       <c r="E153">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="F153">
-        <v>81</v>
+        <v>200</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A154" s="1" t="s">
-        <v>136</v>
+      <c r="A154" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="B154" s="1">
         <v>7</v>
       </c>
       <c r="E154">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F154">
         <v>81</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A155" s="1" t="s">
-        <v>137</v>
+      <c r="A155" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="B155" s="1">
         <v>7</v>
       </c>
       <c r="E155">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="F155">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A156" s="1" t="s">
-        <v>138</v>
+      <c r="A156" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="B156" s="1">
         <v>7</v>
       </c>
       <c r="E156">
-        <v>148</v>
+        <v>21</v>
+      </c>
+      <c r="F156">
+        <v>80</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A157" s="1" t="s">
-        <v>139</v>
+      <c r="A157" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="B157" s="1">
         <v>7</v>
       </c>
       <c r="E157">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="F157">
-        <v>20</v>
+        <v>125</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A158" s="1" t="s">
-        <v>140</v>
+      <c r="A158" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="B158" s="1">
         <v>7</v>
       </c>
+      <c r="E158">
+        <v>45</v>
+      </c>
+      <c r="F158">
+        <v>20</v>
+      </c>
     </row>
     <row r="159" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B159" s="1">
         <v>7</v>
       </c>
+      <c r="E159">
+        <v>263</v>
+      </c>
+      <c r="F159">
+        <v>245</v>
+      </c>
     </row>
     <row r="160" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B160" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E160">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="F160">
-        <v>62</v>
+        <v>212</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="B161" s="1">
         <v>8</v>
       </c>
       <c r="E161">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="F161">
-        <v>101</v>
+        <v>62</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="B162" s="1">
         <v>8</v>
       </c>
       <c r="E162">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="F162">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="B163" s="1">
         <v>8</v>
       </c>
       <c r="E163">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F163">
-        <v>160</v>
+        <v>81</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B164" s="1">
         <v>8</v>
       </c>
       <c r="E164">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="F164">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="B165" s="1">
         <v>8</v>
       </c>
       <c r="E165">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="F165">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B166" s="1">
         <v>8</v>
       </c>
       <c r="E166">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="F166">
-        <v>111</v>
+        <v>140</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B167" s="1">
         <v>8</v>
       </c>
       <c r="E167">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F167">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="B168" s="1">
         <v>8</v>
       </c>
       <c r="E168">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="F168">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B169" s="1">
         <v>8</v>
       </c>
       <c r="E169">
-        <v>149.19999999999999</v>
+        <v>55</v>
       </c>
       <c r="F169">
-        <v>103.4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B170" s="1">
         <v>8</v>
       </c>
       <c r="E170">
-        <v>130</v>
+        <v>149.19999999999999</v>
       </c>
       <c r="F170">
-        <v>116</v>
+        <v>103.4</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="B171" s="1">
         <v>8</v>
       </c>
       <c r="E171">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="F171">
-        <v>51</v>
+        <v>116</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B172" s="1">
         <v>8</v>
       </c>
       <c r="E172">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F172">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B173" s="1">
         <v>8</v>
       </c>
       <c r="E173">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F173">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B174" s="1">
         <v>8</v>
       </c>
       <c r="E174">
-        <v>172.4</v>
+        <v>105</v>
       </c>
       <c r="F174">
-        <v>119.6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B175" s="1">
         <v>8</v>
       </c>
       <c r="E175">
-        <v>120</v>
+        <v>172.4</v>
       </c>
       <c r="F175">
-        <v>59</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B176" s="1">
         <v>8</v>
       </c>
       <c r="E176">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="F176">
-        <v>103.5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B177" s="1">
         <v>8</v>
       </c>
       <c r="E177">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="F177">
-        <v>81</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B178" s="1">
         <v>8</v>
       </c>
       <c r="E178">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F178">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="B179" s="1">
         <v>8</v>
       </c>
       <c r="E179">
-        <v>135.80000000000001</v>
+        <v>120</v>
       </c>
       <c r="F179">
-        <v>99.6</v>
+        <v>93</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="B180" s="1">
         <v>8</v>
       </c>
       <c r="E180">
-        <v>91</v>
+        <v>135.80000000000001</v>
       </c>
       <c r="F180">
-        <v>43</v>
+        <v>99.6</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B181" s="1">
         <v>8</v>
       </c>
       <c r="E181">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F181">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B182" s="1">
         <v>8</v>
       </c>
       <c r="E182">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F182">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B183" s="1">
         <v>8</v>
       </c>
       <c r="E183">
-        <v>161.4</v>
+        <v>110</v>
       </c>
       <c r="F183">
-        <v>98.8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="B184" s="1">
         <v>8</v>
       </c>
       <c r="E184">
-        <v>149.5</v>
+        <v>161.4</v>
       </c>
       <c r="F184">
-        <v>126.5</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="B185" s="1">
         <v>8</v>
       </c>
       <c r="E185">
-        <v>65</v>
+        <v>149.5</v>
+      </c>
+      <c r="F185">
+        <v>126.5</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A186" s="1" t="s">
-        <v>83</v>
+      <c r="A186" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="B186" s="1">
         <v>8</v>
       </c>
       <c r="E186">
+        <v>65</v>
+      </c>
+      <c r="F186">
         <v>105</v>
-      </c>
-      <c r="F186">
-        <v>120</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="B187" s="1">
         <v>8</v>
@@ -3266,764 +3796,884 @@
         <v>105</v>
       </c>
       <c r="F187">
-        <v>65</v>
+        <v>120</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B188" s="1">
         <v>8</v>
       </c>
       <c r="E188">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="F188">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B189" s="1">
         <v>8</v>
       </c>
       <c r="E189">
-        <v>169.7</v>
+        <v>122</v>
       </c>
       <c r="F189">
-        <v>167.2</v>
+        <v>84</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B190" s="1">
         <v>8</v>
       </c>
-      <c r="E190" t="s">
-        <v>262</v>
+      <c r="E190">
+        <v>169.7</v>
+      </c>
+      <c r="F190">
+        <v>167.2</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B191" s="1">
         <v>8</v>
       </c>
-      <c r="E191">
-        <v>120</v>
-      </c>
-      <c r="F191">
-        <v>64</v>
+      <c r="E191" t="s">
+        <v>256</v>
+      </c>
+      <c r="F191" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B192" s="1">
         <v>8</v>
       </c>
       <c r="E192">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F192">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B193" s="1">
         <v>8</v>
       </c>
       <c r="E193">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="F193">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B194" s="1">
         <v>8</v>
       </c>
       <c r="E194">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F194">
-        <v>117</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B195" s="1">
         <v>8</v>
       </c>
       <c r="E195">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F195">
-        <v>55</v>
+        <v>117</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B196" s="1">
         <v>8</v>
       </c>
       <c r="E196">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F196">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B197" s="1">
         <v>8</v>
       </c>
       <c r="E197">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="F197">
-        <v>202.3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B198" s="1">
         <v>8</v>
       </c>
       <c r="E198">
-        <v>152.19999999999999</v>
+        <v>167</v>
       </c>
       <c r="F198">
-        <v>108.1</v>
+        <v>202.3</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B199" s="1">
         <v>8</v>
       </c>
       <c r="E199">
-        <v>155.19999999999999</v>
+        <v>152.19999999999999</v>
       </c>
       <c r="F199">
-        <v>131.1</v>
+        <v>108.1</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B200" s="1">
         <v>8</v>
       </c>
       <c r="E200">
-        <v>110</v>
+        <v>155.19999999999999</v>
       </c>
       <c r="F200">
-        <v>64</v>
+        <v>131.1</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="B201" s="1">
         <v>8</v>
       </c>
       <c r="E201">
-        <v>85</v>
+        <v>110</v>
+      </c>
+      <c r="F201">
+        <v>64</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B202" s="1">
-        <v>9</v>
-      </c>
-      <c r="E202" t="s">
-        <v>262</v>
+        <v>8</v>
+      </c>
+      <c r="E202">
+        <v>85</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B203" s="1">
         <v>9</v>
       </c>
-      <c r="D203">
-        <v>2.63</v>
+      <c r="E203" t="s">
+        <v>256</v>
+      </c>
+      <c r="F203" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="B204" s="1">
         <v>9</v>
       </c>
       <c r="D204">
-        <v>1.5</v>
+        <v>2.63</v>
+      </c>
+      <c r="E204">
+        <v>326.93</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B205" s="1">
         <v>9</v>
       </c>
+      <c r="D205">
+        <v>1.5</v>
+      </c>
       <c r="E205">
-        <v>132</v>
+        <v>155.25</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="B206" s="1">
         <v>9</v>
       </c>
       <c r="E206">
-        <v>63</v>
+        <v>132</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B207" s="1">
         <v>9</v>
       </c>
       <c r="E207">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B208" s="1">
         <v>9</v>
       </c>
-      <c r="E208" t="s">
-        <v>262</v>
+      <c r="E208">
+        <v>35</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="B209" s="1">
         <v>9</v>
       </c>
       <c r="E209" t="s">
-        <v>262</v>
+        <v>256</v>
+      </c>
+      <c r="F209" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="B210" s="1">
         <v>9</v>
       </c>
       <c r="E210" t="s">
-        <v>264</v>
+        <v>256</v>
+      </c>
+      <c r="F210" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="B211" s="1">
         <v>9</v>
       </c>
-      <c r="D211">
-        <v>1.9</v>
+      <c r="E211">
+        <v>94</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="B212" s="1">
         <v>9</v>
       </c>
+      <c r="D212">
+        <v>1.9</v>
+      </c>
+      <c r="E212">
+        <v>297.2</v>
+      </c>
     </row>
     <row r="213" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B213" s="1">
         <v>9</v>
       </c>
-      <c r="E213">
-        <v>112</v>
+      <c r="D213" t="s">
+        <v>256</v>
+      </c>
+      <c r="E213" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B214" s="1">
         <v>9</v>
       </c>
       <c r="E214">
-        <v>40</v>
+        <v>112</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B215" s="1">
         <v>9</v>
       </c>
       <c r="E215">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B216" s="1">
         <v>9</v>
       </c>
-      <c r="D216">
-        <v>1.6</v>
+      <c r="E216">
+        <v>15</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="B217" s="1">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D217">
+        <v>1.6</v>
       </c>
       <c r="E217">
-        <v>20</v>
-      </c>
-      <c r="F217">
-        <v>10</v>
+        <v>296</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="B218" s="1">
         <v>10</v>
       </c>
+      <c r="E218">
+        <v>20</v>
+      </c>
+      <c r="F218">
+        <v>10</v>
+      </c>
     </row>
     <row r="219" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B219" s="1">
         <v>10</v>
       </c>
+      <c r="E219">
+        <v>261</v>
+      </c>
+      <c r="F219">
+        <v>252</v>
+      </c>
     </row>
     <row r="220" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A220" s="1" t="s">
-        <v>182</v>
+      <c r="A220" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="B220" s="1">
         <v>10</v>
       </c>
+      <c r="E220" t="s">
+        <v>256</v>
+      </c>
+      <c r="F220" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="221" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A221" s="1" t="s">
-        <v>183</v>
+      <c r="A221" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="B221" s="1">
         <v>10</v>
       </c>
-      <c r="E221">
-        <v>11</v>
-      </c>
-      <c r="F221">
-        <v>17</v>
+      <c r="E221" t="s">
+        <v>256</v>
+      </c>
+      <c r="F221" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A222" s="1" t="s">
-        <v>184</v>
+      <c r="A222" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="B222" s="1">
         <v>10</v>
       </c>
+      <c r="E222">
+        <v>11</v>
+      </c>
+      <c r="F222">
+        <v>17</v>
+      </c>
     </row>
     <row r="223" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A223" s="1" t="s">
-        <v>131</v>
+      <c r="A223" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="B223" s="1">
         <v>10</v>
       </c>
+      <c r="E223" t="s">
+        <v>256</v>
+      </c>
+      <c r="F223" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="224" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A224" s="1" t="s">
-        <v>185</v>
+      <c r="A224" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="B224" s="1">
         <v>10</v>
       </c>
-      <c r="E224">
-        <v>35</v>
-      </c>
-      <c r="F224">
-        <v>44</v>
+      <c r="E224" t="s">
+        <v>256</v>
+      </c>
+      <c r="F224" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A225" s="1" t="s">
-        <v>186</v>
+      <c r="A225" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="B225" s="1">
         <v>10</v>
       </c>
       <c r="E225">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F225">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A226" s="1" t="s">
-        <v>187</v>
+      <c r="A226" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="B226" s="1">
         <v>10</v>
       </c>
+      <c r="E226">
+        <v>30</v>
+      </c>
+      <c r="F226">
+        <v>50</v>
+      </c>
     </row>
     <row r="227" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A227" s="1" t="s">
-        <v>188</v>
+      <c r="A227" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="B227" s="1">
         <v>10</v>
       </c>
+      <c r="E227" t="s">
+        <v>256</v>
+      </c>
+      <c r="F227" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="228" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A228" s="1" t="s">
-        <v>189</v>
+      <c r="A228" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="B228" s="1">
         <v>10</v>
       </c>
+      <c r="E228" t="s">
+        <v>256</v>
+      </c>
+      <c r="F228" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="229" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A229" s="1" t="s">
-        <v>128</v>
+      <c r="A229" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="B229" s="1">
         <v>10</v>
       </c>
       <c r="E229">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="F229">
-        <v>60</v>
+        <v>195</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A230" s="1" t="s">
-        <v>190</v>
+      <c r="A230" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="B230" s="1">
         <v>10</v>
       </c>
       <c r="E230">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F230">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A231" s="1" t="s">
-        <v>140</v>
+      <c r="A231" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="B231" s="1">
         <v>10</v>
       </c>
+      <c r="E231">
+        <v>10</v>
+      </c>
+      <c r="F231">
+        <v>16</v>
+      </c>
     </row>
     <row r="232" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A232" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B232" s="3">
+      <c r="A232" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B232" s="1">
         <v>10</v>
       </c>
+      <c r="E232" t="s">
+        <v>256</v>
+      </c>
+      <c r="F232" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="233" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A233" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B233" s="1">
+      <c r="A233" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B233" s="3">
         <v>10</v>
       </c>
-      <c r="E233">
-        <v>22</v>
-      </c>
-      <c r="F233">
-        <v>22</v>
+      <c r="E233" t="s">
+        <v>256</v>
+      </c>
+      <c r="F233" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A234" s="1" t="s">
-        <v>128</v>
+      <c r="A234" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="B234" s="1">
         <v>10</v>
       </c>
+      <c r="E234">
+        <v>22</v>
+      </c>
+      <c r="F234">
+        <v>22</v>
+      </c>
     </row>
     <row r="235" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A235" s="1" t="s">
-        <v>192</v>
+      <c r="A235" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="B235" s="1">
         <v>10</v>
       </c>
+      <c r="E235" t="s">
+        <v>256</v>
+      </c>
+      <c r="F235" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="236" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A236" s="1" t="s">
-        <v>193</v>
+      <c r="A236" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="B236" s="1">
         <v>10</v>
       </c>
+      <c r="E236" t="s">
+        <v>256</v>
+      </c>
+      <c r="F236" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="237" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A237" s="1" t="s">
-        <v>194</v>
+      <c r="A237" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="B237" s="1">
         <v>10</v>
       </c>
+      <c r="E237" t="s">
+        <v>256</v>
+      </c>
+      <c r="F237" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="238" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A238" s="1" t="s">
-        <v>136</v>
+      <c r="A238" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="B238" s="1">
         <v>10</v>
       </c>
-      <c r="E238">
-        <v>65</v>
-      </c>
-      <c r="F238">
-        <v>36</v>
+      <c r="E238" t="s">
+        <v>256</v>
+      </c>
+      <c r="F238" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A239" s="1" t="s">
-        <v>195</v>
+      <c r="A239" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="B239" s="1">
         <v>10</v>
       </c>
+      <c r="E239">
+        <v>65</v>
+      </c>
+      <c r="F239">
+        <v>36</v>
+      </c>
     </row>
     <row r="240" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A240" s="1" t="s">
-        <v>196</v>
+      <c r="A240" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="B240" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E240" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F240" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="B241" s="1">
         <v>11</v>
       </c>
-      <c r="E241">
-        <v>87</v>
-      </c>
-      <c r="F241">
-        <v>112</v>
+      <c r="E241" t="s">
+        <v>256</v>
+      </c>
+      <c r="F241" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="B242" s="1">
         <v>11</v>
       </c>
       <c r="E242">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F242">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B243" s="1">
         <v>11</v>
       </c>
       <c r="E243">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="F243">
-        <v>107</v>
+        <v>65</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="B244" s="1">
         <v>11</v>
       </c>
       <c r="E244">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="F244">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B245" s="1">
         <v>11</v>
       </c>
       <c r="E245">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="F245">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
-        <v>199</v>
+        <v>64</v>
       </c>
       <c r="B246" s="1">
         <v>11</v>
       </c>
       <c r="E246">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F246">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="B247" s="1">
         <v>11</v>
       </c>
       <c r="E247">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="F247">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="B248" s="1">
         <v>11</v>
       </c>
       <c r="E248">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="F248">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B249" s="1">
         <v>11</v>
       </c>
       <c r="E249">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F249">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B250" s="1">
         <v>11</v>
       </c>
       <c r="E250">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="F250">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B251" s="1">
         <v>11</v>
       </c>
       <c r="E251">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="F251">
-        <v>91</v>
+        <v>37</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B252" s="1">
         <v>11</v>
@@ -4032,507 +4682,549 @@
         <v>110</v>
       </c>
       <c r="F252">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B253" s="1">
         <v>11</v>
       </c>
       <c r="E253">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F253">
-        <v>45</v>
+        <v>84</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B254" s="1">
         <v>11</v>
       </c>
       <c r="E254">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F254">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="1" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="B255" s="1">
         <v>11</v>
       </c>
       <c r="E255">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="F255">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B256" s="1">
         <v>11</v>
       </c>
-      <c r="E256" t="s">
-        <v>262</v>
-      </c>
-      <c r="F256" t="s">
-        <v>262</v>
+      <c r="E256">
+        <v>84</v>
+      </c>
+      <c r="F256">
+        <v>51</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" s="1" t="s">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="B257" s="1">
         <v>11</v>
       </c>
-      <c r="E257">
-        <v>120</v>
-      </c>
-      <c r="F257">
-        <v>87</v>
+      <c r="E257" t="s">
+        <v>256</v>
+      </c>
+      <c r="F257" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" s="1" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="B258" s="1">
         <v>11</v>
       </c>
       <c r="E258">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="F258">
-        <v>53</v>
+        <v>87</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B259" s="1">
         <v>11</v>
       </c>
       <c r="E259">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="F259">
-        <v>90</v>
+        <v>53</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="B260" s="1">
         <v>11</v>
       </c>
       <c r="E260">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="F260">
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="B261" s="1">
         <v>11</v>
       </c>
       <c r="E261">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="F261">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="B262" s="1">
         <v>11</v>
       </c>
       <c r="E262">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="F262">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
-        <v>210</v>
+        <v>91</v>
       </c>
       <c r="B263" s="1">
         <v>11</v>
       </c>
       <c r="E263">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F263">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
-        <v>96</v>
+        <v>206</v>
       </c>
       <c r="B264" s="1">
         <v>11</v>
       </c>
       <c r="E264">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="F264">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="B265" s="1">
         <v>11</v>
       </c>
       <c r="E265">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F265">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="1" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="B266" s="1">
         <v>11</v>
       </c>
       <c r="E266">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F266">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B267" s="1">
         <v>11</v>
       </c>
       <c r="E267">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="F267">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B268" s="1">
         <v>11</v>
       </c>
       <c r="E268">
+        <v>30</v>
+      </c>
+      <c r="F268">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A269" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B269" s="1">
+        <v>11</v>
+      </c>
+      <c r="E269">
         <v>85</v>
       </c>
-      <c r="F268">
+      <c r="F269">
         <v>60</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A269" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B269" s="3">
+    <row r="270" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A270" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B270" s="3">
         <v>11</v>
       </c>
-      <c r="E269">
+      <c r="E270">
         <v>155</v>
       </c>
-      <c r="F269">
+      <c r="F270">
         <v>38</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A270" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B270" s="1">
-        <v>11</v>
-      </c>
-      <c r="E270">
-        <v>61</v>
-      </c>
-      <c r="F270">
-        <v>65</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B271" s="1">
         <v>11</v>
       </c>
       <c r="E271">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="F271">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
-        <v>9</v>
+        <v>212</v>
       </c>
       <c r="B272" s="1">
-        <v>12</v>
-      </c>
-      <c r="D272">
-        <v>2.8</v>
+        <v>11</v>
+      </c>
+      <c r="E272">
+        <v>92</v>
+      </c>
+      <c r="F272">
+        <v>33</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B273" s="1">
         <v>12</v>
       </c>
-      <c r="E273" t="s">
-        <v>262</v>
+      <c r="D273">
+        <v>2.8</v>
+      </c>
+      <c r="E273">
+        <v>359.24</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
-        <v>217</v>
+        <v>30</v>
       </c>
       <c r="B274" s="1">
         <v>12</v>
       </c>
-      <c r="D274" t="s">
-        <v>260</v>
-      </c>
-      <c r="E274">
-        <v>170</v>
+      <c r="E274" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="B275" s="1">
         <v>12</v>
       </c>
-      <c r="D275">
-        <v>1</v>
+      <c r="D275" t="s">
+        <v>254</v>
+      </c>
+      <c r="E275">
+        <v>170</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="B276" s="1">
         <v>12</v>
       </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+      <c r="E276">
+        <v>194.13</v>
+      </c>
     </row>
     <row r="277" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="B277" s="1">
         <v>12</v>
       </c>
-      <c r="D277">
-        <v>1.5</v>
+      <c r="D277" t="s">
+        <v>256</v>
+      </c>
+      <c r="E277" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B278" s="1">
         <v>12</v>
       </c>
-      <c r="D278" t="s">
-        <v>260</v>
+      <c r="D278">
+        <v>1.5</v>
       </c>
       <c r="E278">
-        <v>195</v>
+        <v>330.45</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
-        <v>218</v>
+        <v>28</v>
       </c>
       <c r="B279" s="1">
         <v>12</v>
       </c>
-      <c r="D279">
-        <v>2.16</v>
+      <c r="D279" t="s">
+        <v>254</v>
+      </c>
+      <c r="E279">
+        <v>195</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="B280" s="1">
         <v>12</v>
       </c>
-      <c r="D280" t="s">
-        <v>260</v>
+      <c r="D280">
+        <v>2.16</v>
       </c>
       <c r="E280">
-        <v>169</v>
+        <v>440</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="B281" s="1">
         <v>12</v>
       </c>
+      <c r="D281" t="s">
+        <v>254</v>
+      </c>
       <c r="E281">
-        <v>111</v>
+        <v>169</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="B282" s="1">
         <v>12</v>
       </c>
-      <c r="E282" t="s">
-        <v>262</v>
+      <c r="E282">
+        <v>111</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="B283" s="1">
         <v>12</v>
       </c>
-      <c r="D283" t="s">
-        <v>260</v>
-      </c>
-      <c r="E283">
-        <v>172</v>
+      <c r="E283" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="B284" s="1">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D284" t="s">
+        <v>254</v>
+      </c>
+      <c r="E284">
+        <v>172</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A285" s="1" t="s">
-        <v>220</v>
+      <c r="A285" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="B285" s="1">
         <v>13</v>
       </c>
+      <c r="D285">
+        <v>379.2</v>
+      </c>
+      <c r="E285">
+        <v>393</v>
+      </c>
     </row>
     <row r="286" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A286" s="1" t="s">
-        <v>221</v>
+      <c r="A286" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="B286" s="1">
         <v>13</v>
       </c>
-      <c r="D286">
-        <v>60</v>
-      </c>
-      <c r="E286">
-        <v>105</v>
+      <c r="D286" t="s">
+        <v>256</v>
+      </c>
+      <c r="E286" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A287" s="1" t="s">
-        <v>222</v>
+      <c r="A287" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="B287" s="1">
         <v>13</v>
       </c>
+      <c r="D287">
+        <v>60</v>
+      </c>
+      <c r="E287">
+        <v>105</v>
+      </c>
     </row>
     <row r="288" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A288" s="1" t="s">
-        <v>223</v>
+      <c r="A288" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="B288" s="1">
         <v>13</v>
       </c>
+      <c r="D288">
+        <v>317</v>
+      </c>
+      <c r="E288">
+        <v>314</v>
+      </c>
     </row>
     <row r="289" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A289" s="1" t="s">
-        <v>224</v>
+      <c r="A289" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="B289" s="1">
         <v>13</v>
       </c>
-      <c r="D289">
-        <v>80</v>
-      </c>
-      <c r="E289">
-        <v>125</v>
+      <c r="D289" t="s">
+        <v>256</v>
+      </c>
+      <c r="E289" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A290" s="1" t="s">
-        <v>225</v>
+      <c r="A290" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="B290" s="1">
         <v>13</v>
       </c>
       <c r="D290">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E290">
-        <v>41</v>
+        <v>125</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A291" s="1" t="s">
-        <v>226</v>
+      <c r="A291" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="B291" s="1">
         <v>13</v>
       </c>
       <c r="D291">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E291">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A292" s="1" t="s">
-        <v>192</v>
+      <c r="A292" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="B292" s="1">
         <v>13</v>
@@ -4541,595 +5233,666 @@
         <v>80</v>
       </c>
       <c r="E292">
-        <v>100</v>
+        <v>53</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A293" s="1" t="s">
-        <v>227</v>
+      <c r="A293" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="B293" s="1">
         <v>13</v>
       </c>
+      <c r="D293">
+        <v>80</v>
+      </c>
+      <c r="E293">
+        <v>100</v>
+      </c>
     </row>
     <row r="294" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A294" s="1" t="s">
-        <v>228</v>
+      <c r="A294" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="B294" s="1">
         <v>13</v>
       </c>
-      <c r="D294">
-        <v>95</v>
-      </c>
-      <c r="E294">
-        <v>75</v>
+      <c r="D294" t="s">
+        <v>256</v>
+      </c>
+      <c r="E294" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A295" s="1" t="s">
-        <v>229</v>
+      <c r="A295" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="B295" s="1">
         <v>13</v>
       </c>
       <c r="D295">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E295">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A296" s="1" t="s">
-        <v>230</v>
+      <c r="A296" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="B296" s="1">
         <v>13</v>
       </c>
+      <c r="D296">
+        <v>90</v>
+      </c>
+      <c r="E296">
+        <v>95</v>
+      </c>
     </row>
     <row r="297" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A297" s="1" t="s">
-        <v>231</v>
+      <c r="A297" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="B297" s="1">
         <v>13</v>
       </c>
-      <c r="D297">
-        <v>75</v>
-      </c>
-      <c r="E297">
-        <v>109</v>
+      <c r="D297" t="s">
+        <v>256</v>
+      </c>
+      <c r="E297" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A298" s="1" t="s">
-        <v>232</v>
+      <c r="A298" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="B298" s="1">
         <v>13</v>
       </c>
+      <c r="D298">
+        <v>75</v>
+      </c>
+      <c r="E298">
+        <v>109</v>
+      </c>
     </row>
     <row r="299" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A299" s="1" t="s">
-        <v>233</v>
+      <c r="A299" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="B299" s="1">
         <v>13</v>
       </c>
       <c r="D299">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="E299">
-        <v>112</v>
+        <v>285</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A300" s="1" t="s">
-        <v>128</v>
+      <c r="A300" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="B300" s="1">
         <v>13</v>
       </c>
       <c r="D300">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E300">
-        <v>78</v>
+        <v>112</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A301" s="1" t="s">
-        <v>234</v>
+      <c r="A301" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="B301" s="1">
         <v>13</v>
       </c>
       <c r="D301">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E301">
-        <v>110</v>
+        <v>78</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A302" s="1" t="s">
-        <v>235</v>
+      <c r="A302" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="B302" s="1">
         <v>13</v>
       </c>
+      <c r="D302">
+        <v>100</v>
+      </c>
+      <c r="E302">
+        <v>110</v>
+      </c>
     </row>
     <row r="303" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A303" s="1" t="s">
-        <v>126</v>
+      <c r="A303" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="B303" s="1">
         <v>13</v>
       </c>
       <c r="D303">
-        <v>50</v>
+        <v>296</v>
       </c>
       <c r="E303">
-        <v>20</v>
+        <v>283</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A304" s="1" t="s">
-        <v>236</v>
+      <c r="A304" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="B304" s="1">
         <v>13</v>
       </c>
+      <c r="D304">
+        <v>50</v>
+      </c>
+      <c r="E304">
+        <v>20</v>
+      </c>
     </row>
     <row r="305" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A305" s="1" t="s">
-        <v>237</v>
+      <c r="A305" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="B305" s="1">
         <v>13</v>
       </c>
       <c r="D305">
-        <v>110</v>
+        <v>353.6</v>
       </c>
       <c r="E305">
-        <v>120</v>
+        <v>322</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B306" s="1">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="D306">
+        <v>110</v>
       </c>
       <c r="E306">
-        <v>45</v>
-      </c>
-      <c r="F306">
-        <v>77</v>
+        <v>120</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B307" s="1">
         <v>14</v>
       </c>
       <c r="E307">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F307">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B308" s="1">
         <v>14</v>
       </c>
       <c r="E308">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F308">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
-        <v>57</v>
+        <v>236</v>
       </c>
       <c r="B309" s="1">
         <v>14</v>
       </c>
       <c r="E309">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F309">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A310" s="1" t="s">
-        <v>241</v>
+        <v>54</v>
       </c>
       <c r="B310" s="1">
         <v>14</v>
       </c>
       <c r="E310">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F310">
-        <v>91</v>
+        <v>63</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B311" s="1">
         <v>14</v>
       </c>
       <c r="E311">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F311">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B312" s="1">
         <v>14</v>
       </c>
       <c r="E312">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F312">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B313" s="1">
         <v>14</v>
       </c>
       <c r="E313">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F313">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B314" s="1">
         <v>14</v>
       </c>
       <c r="E314">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F314">
-        <v>121</v>
+        <v>83</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="B315" s="1">
         <v>14</v>
       </c>
       <c r="E315">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F315">
-        <v>72</v>
+        <v>121</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="B316" s="1">
         <v>14</v>
       </c>
       <c r="E316">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F316">
-        <v>130</v>
+        <v>72</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
-        <v>128</v>
+        <v>242</v>
       </c>
       <c r="B317" s="1">
         <v>14</v>
       </c>
       <c r="E317">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F317">
-        <v>81</v>
+        <v>130</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B318" s="1">
         <v>14</v>
       </c>
       <c r="E318">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="F318">
-        <v>52</v>
+        <v>81</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="B319" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E319">
-        <v>135</v>
+        <v>47</v>
+      </c>
+      <c r="F319">
+        <v>52</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="B320" s="1">
         <v>15</v>
       </c>
       <c r="E320">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="1" t="s">
-        <v>25</v>
+        <v>243</v>
       </c>
       <c r="B321" s="1">
         <v>15</v>
       </c>
-      <c r="D321">
-        <v>1.8</v>
-      </c>
       <c r="E321">
-        <v>177</v>
+        <v>103</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="1" t="s">
-        <v>248</v>
+        <v>23</v>
       </c>
       <c r="B322" s="1">
         <v>15</v>
       </c>
-      <c r="D322" t="s">
-        <v>260</v>
+      <c r="D322">
+        <v>1.8</v>
+      </c>
+      <c r="E322" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A323" s="1" t="s">
-        <v>249</v>
+      <c r="A323" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="B323" s="1">
         <v>15</v>
       </c>
+      <c r="D323" t="s">
+        <v>254</v>
+      </c>
       <c r="E323">
-        <v>91</v>
+        <v>186</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A324" s="1" t="s">
-        <v>11</v>
+      <c r="A324" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="B324" s="1">
         <v>15</v>
       </c>
-      <c r="D324">
-        <v>1.1000000000000001</v>
+      <c r="E324">
+        <v>91</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A325" s="1" t="s">
-        <v>250</v>
+      <c r="A325" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B325" s="1">
         <v>15</v>
       </c>
+      <c r="D325">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="E325">
-        <v>45</v>
+        <v>273.73</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A326" s="1" t="s">
-        <v>34</v>
+      <c r="A326" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="B326" s="1">
         <v>15</v>
       </c>
-      <c r="D326">
-        <v>2.4300000000000002</v>
+      <c r="E326">
+        <v>45</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A327" s="1" t="s">
-        <v>12</v>
+      <c r="A327" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B327" s="1">
         <v>15</v>
       </c>
       <c r="D327">
-        <v>2.7</v>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="E327">
+        <v>373.48</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A328" s="1" t="s">
-        <v>251</v>
+      <c r="A328" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B328" s="1">
         <v>15</v>
       </c>
       <c r="D328">
-        <v>1</v>
+        <v>2.7</v>
+      </c>
+      <c r="E328">
+        <v>345.2</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A329" s="1" t="s">
-        <v>251</v>
+      <c r="A329" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="B329" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D329">
         <v>1</v>
       </c>
+      <c r="E329">
+        <v>200</v>
+      </c>
     </row>
     <row r="330" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A330" s="1" t="s">
-        <v>252</v>
+      <c r="A330" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="B330" s="1">
         <v>16</v>
       </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
       <c r="E330">
-        <v>32</v>
+        <v>252</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A331" s="1" t="s">
-        <v>253</v>
+      <c r="A331" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="B331" s="1">
         <v>16</v>
       </c>
       <c r="E331">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A332" s="1" t="s">
-        <v>29</v>
+      <c r="A332" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="B332" s="1">
         <v>16</v>
       </c>
-      <c r="D332">
-        <v>1.07</v>
+      <c r="E332">
+        <v>22</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A333" s="1" t="s">
-        <v>49</v>
+      <c r="A333" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B333" s="1">
         <v>16</v>
       </c>
       <c r="D333">
-        <v>1.1000000000000001</v>
+        <v>1.07</v>
+      </c>
+      <c r="E333">
+        <v>276</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A334" s="1" t="s">
-        <v>107</v>
+      <c r="A334" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="B334" s="1">
         <v>16</v>
       </c>
+      <c r="D334">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="E334">
-        <v>116</v>
+        <v>221</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A335" s="1" t="s">
-        <v>254</v>
+      <c r="A335" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="B335" s="1">
         <v>16</v>
       </c>
-      <c r="D335">
-        <v>1.67</v>
+      <c r="E335">
+        <v>116</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A336" s="1" t="s">
-        <v>255</v>
+      <c r="A336" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="B336" s="1">
         <v>16</v>
       </c>
+      <c r="D336">
+        <v>1.67</v>
+      </c>
       <c r="E336">
-        <v>119</v>
+        <v>280</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="1" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="B337" s="1">
         <v>16</v>
       </c>
-      <c r="D337" t="s">
-        <v>260</v>
-      </c>
       <c r="E337">
-        <v>169</v>
+        <v>119</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A338" s="1" t="s">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="B338" s="1">
         <v>16</v>
       </c>
+      <c r="D338" t="s">
+        <v>254</v>
+      </c>
       <c r="E338">
-        <v>75</v>
+        <v>169</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="1" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="B339" s="1">
         <v>16</v>
       </c>
-      <c r="D339">
-        <v>1</v>
-      </c>
       <c r="E339">
-        <v>200</v>
+        <v>75</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A340" s="1" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B340" s="1">
         <v>16</v>
       </c>
-      <c r="D340" t="s">
-        <v>262</v>
-      </c>
-      <c r="E340" t="s">
-        <v>262</v>
+      <c r="D340">
+        <v>1</v>
+      </c>
+      <c r="E340">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A341" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B341" s="1">
+        <v>16</v>
+      </c>
+      <c r="D341" t="s">
+        <v>256</v>
+      </c>
+      <c r="E341" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
